--- a/docs/elementui-extend/files/批量新增-保单模版.xlsx
+++ b/docs/elementui-extend/files/批量新增-保单模版.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11740"/>
+    <workbookView windowHeight="16960"/>
   </bookViews>
   <sheets>
     <sheet name="保单数据模板" sheetId="1" r:id="rId1"/>
@@ -126,106 +126,106 @@
     <t>食品生产企业</t>
   </si>
   <si>
+    <t>粮食加工品</t>
+  </si>
+  <si>
+    <t>华泰财产保险有限公司</t>
+  </si>
+  <si>
+    <t>独立承保</t>
+  </si>
+  <si>
+    <t>张测试</t>
+  </si>
+  <si>
+    <t>91321322MA1YDTRF41</t>
+  </si>
+  <si>
+    <t>北京市</t>
+  </si>
+  <si>
+    <t>市辖区</t>
+  </si>
+  <si>
+    <t>东城区</t>
+  </si>
+  <si>
+    <t>某某路某某大厦A座1201</t>
+  </si>
+  <si>
+    <t>李四商贸有限公司</t>
+  </si>
+  <si>
+    <t>91321322MA1YDTRF5Q</t>
+  </si>
+  <si>
+    <t>相关说明</t>
+  </si>
+  <si>
+    <t>企业类型</t>
+  </si>
+  <si>
+    <t>餐饮服务单位</t>
+  </si>
+  <si>
+    <t>食品经营企业</t>
+  </si>
+  <si>
+    <t>食品摊贩</t>
+  </si>
+  <si>
+    <t>其它</t>
+  </si>
+  <si>
+    <t>共保</t>
+  </si>
+  <si>
+    <t>食用油、油脂及其制品</t>
+  </si>
+  <si>
+    <t>餐饮管理企业</t>
+  </si>
+  <si>
+    <t>食杂店</t>
+  </si>
+  <si>
+    <t>调味品</t>
+  </si>
+  <si>
+    <t>农村自办宴席举办者或加工服务者</t>
+  </si>
+  <si>
+    <t>批发单位</t>
+  </si>
+  <si>
+    <t>肉制品</t>
+  </si>
+  <si>
+    <t>中央厨房</t>
+  </si>
+  <si>
+    <t>超市</t>
+  </si>
+  <si>
+    <t>乳制品</t>
+  </si>
+  <si>
+    <t>小餐饮</t>
+  </si>
+  <si>
+    <t>食品店</t>
+  </si>
+  <si>
+    <t>饮料</t>
+  </si>
+  <si>
+    <t>集体送餐配送单位</t>
+  </si>
+  <si>
+    <t>商贸企业</t>
+  </si>
+  <si>
     <t>方便食品</t>
-  </si>
-  <si>
-    <t>华泰财产保险有限公司</t>
-  </si>
-  <si>
-    <t>独立承保</t>
-  </si>
-  <si>
-    <t>张测试</t>
-  </si>
-  <si>
-    <t>91321322MA1YDTRF41</t>
-  </si>
-  <si>
-    <t>北京市</t>
-  </si>
-  <si>
-    <t>市辖区</t>
-  </si>
-  <si>
-    <t>东城区</t>
-  </si>
-  <si>
-    <t>某某路某某大厦A座1201</t>
-  </si>
-  <si>
-    <t>李四商贸有限公司</t>
-  </si>
-  <si>
-    <t>91321322MA1YDTRF5Q</t>
-  </si>
-  <si>
-    <t>相关说明</t>
-  </si>
-  <si>
-    <t>企业类型</t>
-  </si>
-  <si>
-    <t>餐饮服务单位</t>
-  </si>
-  <si>
-    <t>食品经营企业</t>
-  </si>
-  <si>
-    <t>粮食加工品</t>
-  </si>
-  <si>
-    <t>食品摊贩</t>
-  </si>
-  <si>
-    <t>其它</t>
-  </si>
-  <si>
-    <t>共保</t>
-  </si>
-  <si>
-    <t>食用油、油脂及其制品</t>
-  </si>
-  <si>
-    <t>餐饮管理企业</t>
-  </si>
-  <si>
-    <t>食杂店</t>
-  </si>
-  <si>
-    <t>调味品</t>
-  </si>
-  <si>
-    <t>农村自办宴席举办者或加工服务者</t>
-  </si>
-  <si>
-    <t>批发单位</t>
-  </si>
-  <si>
-    <t>肉制品</t>
-  </si>
-  <si>
-    <t>中央厨房</t>
-  </si>
-  <si>
-    <t>超市</t>
-  </si>
-  <si>
-    <t>乳制品</t>
-  </si>
-  <si>
-    <t>小餐饮</t>
-  </si>
-  <si>
-    <t>食品店</t>
-  </si>
-  <si>
-    <t>饮料</t>
-  </si>
-  <si>
-    <t>集体送餐配送单位</t>
-  </si>
-  <si>
-    <t>商贸企业</t>
   </si>
   <si>
     <t>食堂</t>
@@ -341,11 +341,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd\ hh:mm:ss"/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -380,7 +380,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="52"/>
+      <color indexed="8"/>
+      <name val="等线"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="62"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
       <name val="等线"/>
       <charset val="0"/>
     </font>
@@ -399,13 +413,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color indexed="62"/>
-      <name val="等线"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color indexed="62"/>
       <name val="等线"/>
@@ -413,7 +420,20 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="8"/>
+      <color indexed="10"/>
+      <name val="等线"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="52"/>
+      <name val="等线"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color indexed="23"/>
       <name val="等线"/>
       <charset val="0"/>
     </font>
@@ -425,18 +445,6 @@
       <charset val="0"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="10"/>
-      <name val="等线"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="等线"/>
-      <charset val="0"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color indexed="62"/>
@@ -445,8 +453,21 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color indexed="62"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color indexed="63"/>
+      <name val="等线"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="60"/>
       <name val="等线"/>
       <charset val="0"/>
     </font>
@@ -460,34 +481,13 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color indexed="8"/>
-      <name val="等线"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="60"/>
-      <name val="等线"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color indexed="52"/>
       <name val="等线"/>
       <charset val="0"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color indexed="62"/>
-      <name val="等线"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
-      <color indexed="23"/>
+      <color indexed="17"/>
       <name val="等线"/>
       <charset val="0"/>
     </font>
@@ -519,19 +519,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="57"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="44"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="53"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -543,43 +531,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="29"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="49"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="55"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="27"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="31"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="43"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -592,6 +544,54 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="51"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="55"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="29"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="31"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="27"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="49"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="53"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -623,17 +623,19 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color indexed="52"/>
+      <bottom style="medium">
+        <color indexed="44"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="44"/>
+      <top style="thin">
+        <color indexed="49"/>
+      </top>
+      <bottom style="double">
+        <color indexed="49"/>
       </bottom>
       <diagonal/>
     </border>
@@ -643,6 +645,30 @@
       <top/>
       <bottom style="medium">
         <color indexed="49"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="52"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="22"/>
+      </left>
+      <right style="thin">
+        <color indexed="22"/>
+      </right>
+      <top style="thin">
+        <color indexed="22"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="22"/>
       </bottom>
       <diagonal/>
     </border>
@@ -677,17 +703,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="49"/>
-      </top>
-      <bottom style="double">
-        <color indexed="49"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="23"/>
       </left>
@@ -702,168 +717,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="22"/>
-      </left>
-      <right style="thin">
-        <color indexed="22"/>
-      </right>
-      <top style="thin">
-        <color indexed="22"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="22"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1304,7 +1304,7 @@
   <dimension ref="A1:AK9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="20" customHeight="1"/>
@@ -1635,30 +1635,30 @@
         <v>26</v>
       </c>
       <c r="C3" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="E3" s="4" t="s">
         <v>43</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:5">
       <c r="A4" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>40</v>
       </c>
       <c r="C4" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="E4" s="4" t="s">
         <v>47</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:5">
@@ -1667,59 +1667,59 @@
         <v>41</v>
       </c>
       <c r="C5" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="E5" s="4" t="s">
         <v>50</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:5">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="E6" s="4" t="s">
         <v>53</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:5">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="E7" s="4" t="s">
         <v>56</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:5">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="E8" s="4" t="s">
         <v>59</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:5">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4" t="s">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>61</v>
